--- a/Wyniki 3/S1/S1-GraphQL2 (resolved) — jedno pole.xlsx
+++ b/Wyniki 3/S1/S1-GraphQL2 (resolved) — jedno pole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D1511C-70DC-4DEB-9DAE-04F415E29DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9412E6B-14A1-4629-A5ED-E0931E41F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -94,24 +94,6 @@
     <t>26MB</t>
   </si>
   <si>
-    <t>8,5GB</t>
-  </si>
-  <si>
-    <t>273MB</t>
-  </si>
-  <si>
-    <t>271MB</t>
-  </si>
-  <si>
-    <t>8,4GB</t>
-  </si>
-  <si>
-    <t>269MB</t>
-  </si>
-  <si>
-    <t>272MB</t>
-  </si>
-  <si>
     <t>1,8GB</t>
   </si>
   <si>
@@ -176,6 +158,42 @@
   </si>
   <si>
     <t>662MB</t>
+  </si>
+  <si>
+    <t>821MB</t>
+  </si>
+  <si>
+    <t>6,9GB</t>
+  </si>
+  <si>
+    <t>221MB</t>
+  </si>
+  <si>
+    <t>220MB</t>
+  </si>
+  <si>
+    <t>219MB</t>
+  </si>
+  <si>
+    <t>7,4GB</t>
+  </si>
+  <si>
+    <t>237MB</t>
+  </si>
+  <si>
+    <t>238MB</t>
+  </si>
+  <si>
+    <t>236MB</t>
+  </si>
+  <si>
+    <t>235MB</t>
+  </si>
+  <si>
+    <t>7,3GB</t>
+  </si>
+  <si>
+    <t>234MB</t>
   </si>
 </sst>
 </file>
@@ -295,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,10 +338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -334,6 +357,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:K38"/>
+  <dimension ref="E7:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,18 +657,18 @@
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,12 +687,12 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="11">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="13">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -681,15 +707,19 @@
       <c r="I9" s="1">
         <v>1.7</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1.75</v>
       </c>
       <c r="K9" s="1">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
+      <c r="L9">
+        <f>AVERAGE(G9:K9)</f>
+        <v>1.7079999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,15 +732,19 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
+      <c r="L10">
+        <f t="shared" ref="L10:L28" si="0">AVERAGE(G10:K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -723,15 +757,19 @@
       <c r="I11" s="1">
         <v>156.22999999999999</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>54</v>
       </c>
       <c r="K11" s="1">
         <v>156.66</v>
       </c>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="11"/>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>134.70400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="13"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,15 +782,19 @@
       <c r="I12" s="1">
         <v>2.74</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>2.87</v>
       </c>
       <c r="K12" s="1">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="11"/>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2.798</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -765,15 +807,19 @@
       <c r="I13" s="1">
         <v>3.2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>3.36</v>
       </c>
       <c r="K13" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>3.278</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,15 +832,19 @@
       <c r="I14" s="1">
         <v>83930</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>83930</v>
       </c>
       <c r="K14" s="1">
         <v>83931</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>83930.8</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="13"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,15 +857,19 @@
       <c r="I15" s="1">
         <v>960.1</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>960.1</v>
       </c>
       <c r="K15" s="1">
         <v>960.1</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="11"/>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>960.14</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,57 +882,69 @@
       <c r="I16" s="1">
         <v>87.42</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>87.42</v>
       </c>
       <c r="K16" s="1">
         <v>87.42</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="11"/>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>87.416000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="11">
+        <v>30</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="13">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -899,9 +965,13 @@
       <c r="K19" s="4">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="11"/>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1.0658000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -920,9 +990,13 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="11"/>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -941,9 +1015,13 @@
       <c r="K21" s="4">
         <v>64.52</v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="11"/>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>119.57000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E22" s="13"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -962,9 +1040,13 @@
       <c r="K22" s="4">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="11"/>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>2.008</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="13"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -983,9 +1065,13 @@
       <c r="K23" s="4">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="11"/>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1004,9 +1090,13 @@
       <c r="K24" s="4">
         <v>839198</v>
       </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="11"/>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>839386.2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="13"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1025,9 +1115,13 @@
       <c r="K25" s="4">
         <v>960.7</v>
       </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>960.57999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="13"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1046,51 +1140,63 @@
       <c r="K26" s="4">
         <v>873.49</v>
       </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="11"/>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>873.83199999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="13"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="11">
+        <v>32</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="13">
         <v>4000</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1105,11 +1211,15 @@
       <c r="I29" s="1">
         <v>407.3</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="11"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29">
+        <f>AVERAGE(G29:I29)</f>
+        <v>406.31</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1122,11 +1232,15 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="11"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30">
+        <f t="shared" ref="L30:L38" si="1">AVERAGE(G30:I30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="13"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1139,11 +1253,15 @@
       <c r="I31" s="1">
         <v>649.16</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="11"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>660.35666666666657</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1156,11 +1274,15 @@
       <c r="I32" s="1">
         <v>507.11</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E33" s="11"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>504.95666666666665</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1173,11 +1295,15 @@
       <c r="I33" s="1">
         <v>521.6</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E34" s="11"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>518.12666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1190,11 +1316,15 @@
       <c r="I34" s="1">
         <v>2388531</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="11"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>2390222</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1207,11 +1337,15 @@
       <c r="I35" s="1">
         <v>960.5</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="11"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>960.63333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="13"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,42 +1358,54 @@
       <c r="I36" s="1">
         <v>2486.86</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="11"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>2488.25</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="13"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E38" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1274,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
-  <dimension ref="E7:L40"/>
+  <dimension ref="E7:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,18 +1431,19 @@
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="12" t="s">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,8 +1460,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="12">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="17">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1329,18 +1476,22 @@
       <c r="I9" s="1">
         <v>1.73</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>1.69</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>1.73</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="12"/>
+      <c r="M9">
+        <f>AVERAGE(G9:L9)</f>
+        <v>1.7283333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="17"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1353,18 +1504,22 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M18" si="0">AVERAGE(G10:L10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="17"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1377,18 +1532,22 @@
       <c r="I11" s="1">
         <v>146.36000000000001</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>156.35</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>151.81</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>151.94</v>
       </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>151.23833333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="17"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1401,18 +1560,22 @@
       <c r="I12" s="1">
         <v>2.62</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>2.59</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>2.66</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2.6416666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="17"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1425,18 +1588,22 @@
       <c r="I13" s="1">
         <v>3.07</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>3.06</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>3.14</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>3.1216666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="17"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1449,18 +1616,22 @@
       <c r="I14" s="1">
         <v>83928</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>83928</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>83928</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>83930</v>
       </c>
-    </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>83928.666666666672</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="17"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1473,18 +1644,22 @@
       <c r="I15" s="1">
         <v>960.1</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>960.9</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>960.1</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>960.2</v>
       </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>960.26666666666677</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="17"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1497,18 +1672,22 @@
       <c r="I16" s="1">
         <v>87.42</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>87.34</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>87.42</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>87.4</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>87.40000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="17"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1521,18 +1700,22 @@
       <c r="I17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
+      <c r="M17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="17"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1545,18 +1728,22 @@
       <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="16">
+      <c r="M18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="18">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1571,9 +1758,13 @@
       <c r="I19" s="2">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="16"/>
+      <c r="J19">
+        <f>AVERAGE(G19:I19)</f>
+        <v>1.5266666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="18"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1586,9 +1777,13 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="16"/>
+      <c r="J20">
+        <f t="shared" ref="J20:J38" si="1">AVERAGE(G20:I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="18"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1601,9 +1796,13 @@
       <c r="I21" s="2">
         <v>49.74</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="16"/>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>117.90333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="18"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1616,9 +1815,13 @@
       <c r="I22" s="2">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="16"/>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>2.6166666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="18"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1631,9 +1834,13 @@
       <c r="I23" s="2">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="16"/>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="18"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1646,9 +1853,13 @@
       <c r="I24" s="2">
         <v>839046</v>
       </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="16"/>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>838995</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="18"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1661,9 +1872,13 @@
       <c r="I25" s="2">
         <v>960.9</v>
       </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="16"/>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>960.86666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="18"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1676,39 +1891,51 @@
       <c r="I26" s="2">
         <v>873.2</v>
       </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="16"/>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>873.16</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="18"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="18"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="12">
+        <v>19</v>
+      </c>
+      <c r="J28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="17">
         <v>4000</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1723,9 +1950,13 @@
       <c r="I29" s="1">
         <v>1040</v>
       </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>1043.3333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="17"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1738,9 +1969,13 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="17"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1753,9 +1988,13 @@
       <c r="I31" s="1">
         <v>1450</v>
       </c>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>1436.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="17"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1768,9 +2007,13 @@
       <c r="I32" s="1">
         <v>1230</v>
       </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="17"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1783,9 +2026,13 @@
       <c r="I33" s="1">
         <v>1240</v>
       </c>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="12"/>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="17"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1798,9 +2045,13 @@
       <c r="I34" s="1">
         <v>1644510</v>
       </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1641208</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="17"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1813,9 +2064,13 @@
       <c r="I35" s="1">
         <v>960.8</v>
       </c>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>960.73333333333323</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="17"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1828,41 +2083,53 @@
       <c r="I36" s="1">
         <v>1711.67</v>
       </c>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="12"/>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>1708.2633333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="17"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="J37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="17"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1877,26 +2144,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:K41"/>
+  <dimension ref="E7:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
@@ -1916,123 +2184,227 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="9">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="G9" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="K9" s="9">
+        <v>2.2200000000000002</v>
+      </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="G11" s="1">
+        <v>166.59</v>
+      </c>
+      <c r="H11" s="1">
+        <v>157.37</v>
+      </c>
+      <c r="I11" s="1">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="J11" s="9">
+        <v>153.28</v>
+      </c>
+      <c r="K11" s="9">
+        <v>175.88</v>
+      </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="G12" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="J12" s="9">
+        <v>3.31</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.37</v>
+      </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="G13" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="J13" s="9">
+        <v>4.09</v>
+      </c>
+      <c r="K13" s="9">
+        <v>4.08</v>
+      </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="G14" s="1">
+        <v>83897</v>
+      </c>
+      <c r="H14" s="1">
+        <v>83885</v>
+      </c>
+      <c r="I14" s="1">
+        <v>83885</v>
+      </c>
+      <c r="J14" s="9">
+        <v>83891</v>
+      </c>
+      <c r="K14" s="9">
+        <v>83885</v>
+      </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="G15" s="1">
+        <v>960.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J15" s="9">
+        <v>960.7</v>
+      </c>
+      <c r="K15" s="9">
+        <v>960.8</v>
+      </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+      <c r="G16" s="1">
+        <v>87.37</v>
+      </c>
+      <c r="H16" s="1">
+        <v>87.33</v>
+      </c>
+      <c r="I16" s="1">
+        <v>87.32</v>
+      </c>
+      <c r="J16" s="9">
+        <v>87.32</v>
+      </c>
+      <c r="K16" s="9">
+        <v>87.31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="12"/>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="13"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="16">
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="13">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2047,13 +2419,31 @@
       <c r="I19" s="2">
         <v>204.6</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>210.47</v>
       </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="16"/>
+      <c r="K19" s="4">
+        <v>189.42</v>
+      </c>
+      <c r="L19" s="10">
+        <v>197.41</v>
+      </c>
+      <c r="M19" s="10">
+        <v>201.74</v>
+      </c>
+      <c r="N19" s="10">
+        <v>200.38</v>
+      </c>
+      <c r="O19" s="10">
+        <v>194.05</v>
+      </c>
+      <c r="P19">
+        <f>AVERAGE(G19:O19)</f>
+        <v>203.92111111111114</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="13"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2066,13 +2456,31 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="16"/>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:P28" si="0">AVERAGE(G20:O20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="13"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -2085,13 +2493,31 @@
       <c r="I21" s="2">
         <v>569.6</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>466.72</v>
       </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="16"/>
+      <c r="K21" s="4">
+        <v>357.14</v>
+      </c>
+      <c r="L21" s="10">
+        <v>429.12</v>
+      </c>
+      <c r="M21" s="10">
+        <v>383.34</v>
+      </c>
+      <c r="N21" s="10">
+        <v>416.66</v>
+      </c>
+      <c r="O21" s="10">
+        <v>453.51</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>460.64111111111106</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="13"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2104,13 +2530,31 @@
       <c r="I22" s="2">
         <v>260.31</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>266.49</v>
       </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="16"/>
+      <c r="K22" s="4">
+        <v>250.56</v>
+      </c>
+      <c r="L22" s="11">
+        <v>256.56</v>
+      </c>
+      <c r="M22" s="12">
+        <v>259.88</v>
+      </c>
+      <c r="N22" s="12">
+        <v>260.44</v>
+      </c>
+      <c r="O22" s="12">
+        <v>254.82</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>262.89222222222224</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="13"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2123,13 +2567,31 @@
       <c r="I23" s="2">
         <v>280.60000000000002</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>284.55</v>
       </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="16"/>
+      <c r="K23" s="4">
+        <v>261.88</v>
+      </c>
+      <c r="L23" s="11">
+        <v>270.25</v>
+      </c>
+      <c r="M23" s="12">
+        <v>270.08</v>
+      </c>
+      <c r="N23" s="12">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="O23" s="12">
+        <v>267.57</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>278.77333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="13"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2142,13 +2604,31 @@
       <c r="I24" s="2">
         <v>697494</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>694113</v>
       </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="16"/>
+      <c r="K24" s="4">
+        <v>706390</v>
+      </c>
+      <c r="L24" s="11">
+        <v>701692</v>
+      </c>
+      <c r="M24" s="12">
+        <v>699161</v>
+      </c>
+      <c r="N24" s="12">
+        <v>699950</v>
+      </c>
+      <c r="O24" s="12">
+        <v>703666</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>697945.22222222225</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="13"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2161,13 +2641,31 @@
       <c r="I25" s="2">
         <v>960.7</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>960.5</v>
       </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="16"/>
+      <c r="K25" s="4">
+        <v>960.7</v>
+      </c>
+      <c r="L25" s="11">
+        <v>960.7</v>
+      </c>
+      <c r="M25" s="12">
+        <v>961</v>
+      </c>
+      <c r="N25" s="12">
+        <v>960.5</v>
+      </c>
+      <c r="O25" s="12">
+        <v>960.6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>960.64444444444439</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="13"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2180,177 +2678,265 @@
       <c r="I26" s="2">
         <v>725.99</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>722.66</v>
       </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="16"/>
+      <c r="K26" s="4">
+        <v>735.25</v>
+      </c>
+      <c r="L26" s="11">
+        <v>730.43</v>
+      </c>
+      <c r="M26" s="12">
+        <v>727.54</v>
+      </c>
+      <c r="N26" s="12">
+        <v>728.76</v>
+      </c>
+      <c r="O26" s="12">
+        <v>732.51</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>726.53444444444449</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E28" s="13"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="12">
+        <v>27</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="13">
         <v>4000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>2850</v>
+        <v>3430</v>
       </c>
       <c r="H29" s="1">
-        <v>2880</v>
+        <v>3420</v>
       </c>
       <c r="I29" s="1">
-        <v>2910</v>
+        <v>3460</v>
       </c>
       <c r="J29" s="1">
-        <v>2860</v>
+        <v>3470</v>
       </c>
       <c r="K29" s="1">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="12"/>
+        <v>3500</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(G29:K29)</f>
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E30" s="13"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="12"/>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L38" si="1">AVERAGE(G30:K30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E31" s="13"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>3540</v>
+        <v>4210</v>
       </c>
       <c r="H31" s="1">
-        <v>3490</v>
+        <v>4210</v>
       </c>
       <c r="I31" s="1">
-        <v>3590</v>
+        <v>4340</v>
       </c>
       <c r="J31" s="1">
-        <v>3450</v>
+        <v>4280</v>
       </c>
       <c r="K31" s="1">
-        <v>3910</v>
-      </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="12"/>
+        <v>5370</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>3300</v>
+        <v>3980</v>
       </c>
       <c r="H32" s="1">
-        <v>3340</v>
+        <v>3970</v>
       </c>
       <c r="I32" s="1">
-        <v>3370</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="1">
-        <v>3320</v>
+        <v>4030</v>
       </c>
       <c r="K32" s="1">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E33" s="12"/>
+        <v>4280</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>3320</v>
+        <v>4000</v>
       </c>
       <c r="H33" s="1">
-        <v>3350</v>
+        <v>3980</v>
       </c>
       <c r="I33" s="1">
-        <v>3380</v>
+        <v>4010</v>
       </c>
       <c r="J33" s="1">
-        <v>3320</v>
+        <v>4060</v>
       </c>
       <c r="K33" s="1">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E34" s="12"/>
+        <v>4410</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>873351</v>
+        <v>758474</v>
       </c>
       <c r="H34" s="1">
-        <v>864883</v>
+        <v>760179</v>
       </c>
       <c r="I34" s="1">
-        <v>860183</v>
+        <v>754228</v>
       </c>
       <c r="J34" s="1">
-        <v>869482</v>
+        <v>752020</v>
       </c>
       <c r="K34" s="1">
-        <v>868542</v>
-      </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E35" s="12"/>
+        <v>746245</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>754229.2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>960.6</v>
+        <v>960.8</v>
       </c>
       <c r="H35" s="1">
-        <v>960.8</v>
+        <v>960.5</v>
       </c>
       <c r="I35" s="1">
         <v>960.5</v>
@@ -2361,75 +2947,91 @@
       <c r="K35" s="1">
         <v>960.8</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="12"/>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>960.66000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" s="13"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>909.21</v>
+        <v>789.45</v>
       </c>
       <c r="H36" s="1">
-        <v>900.17</v>
+        <v>791.41</v>
       </c>
       <c r="I36" s="1">
-        <v>895.58</v>
+        <v>785.24</v>
       </c>
       <c r="J36" s="1">
-        <v>905.07</v>
+        <v>782.77</v>
       </c>
       <c r="K36" s="1">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E37" s="12"/>
+        <v>776.65</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>785.10400000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E37" s="13"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E38" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="L37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Wyniki 3/S1/S1-GraphQL2 (resolved) — jedno pole.xlsx
+++ b/Wyniki 3/S1/S1-GraphQL2 (resolved) — jedno pole.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9412E6B-14A1-4629-A5ED-E0931E41F6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8745059-FC33-4D53-A2C9-5B406D946951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="62">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -194,6 +194,36 @@
   </si>
   <si>
     <t>234MB</t>
+  </si>
+  <si>
+    <t>3,2GB</t>
+  </si>
+  <si>
+    <t>465MB</t>
+  </si>
+  <si>
+    <t>3,3GB</t>
+  </si>
+  <si>
+    <t>473MB</t>
+  </si>
+  <si>
+    <t>464MB</t>
+  </si>
+  <si>
+    <t>466MB</t>
+  </si>
+  <si>
+    <t>467MB</t>
+  </si>
+  <si>
+    <t>500MB</t>
+  </si>
+  <si>
+    <t>468MB</t>
+  </si>
+  <si>
+    <t>470MB</t>
   </si>
 </sst>
 </file>
@@ -209,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +258,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -309,11 +351,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,7 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +430,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:L38"/>
+  <dimension ref="E7:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,15 +747,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -687,12 +776,12 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -707,7 +796,7 @@
       <c r="I9" s="1">
         <v>1.7</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>1.75</v>
       </c>
       <c r="K9" s="1">
@@ -719,7 +808,7 @@
       </c>
     </row>
     <row r="10" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -732,7 +821,7 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>0</v>
       </c>
       <c r="K10" s="1">
@@ -744,7 +833,7 @@
       </c>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="13"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,7 +846,7 @@
       <c r="I11" s="1">
         <v>156.22999999999999</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>54</v>
       </c>
       <c r="K11" s="1">
@@ -769,7 +858,7 @@
       </c>
     </row>
     <row r="12" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,7 +871,7 @@
       <c r="I12" s="1">
         <v>2.74</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>2.87</v>
       </c>
       <c r="K12" s="1">
@@ -794,7 +883,7 @@
       </c>
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,7 +896,7 @@
       <c r="I13" s="1">
         <v>3.2</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>3.36</v>
       </c>
       <c r="K13" s="1">
@@ -819,7 +908,7 @@
       </c>
     </row>
     <row r="14" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,7 +921,7 @@
       <c r="I14" s="1">
         <v>83930</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>83930</v>
       </c>
       <c r="K14" s="1">
@@ -844,7 +933,7 @@
       </c>
     </row>
     <row r="15" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,7 +946,7 @@
       <c r="I15" s="1">
         <v>960.1</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>960.1</v>
       </c>
       <c r="K15" s="1">
@@ -869,7 +958,7 @@
       </c>
     </row>
     <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,7 +971,7 @@
       <c r="I16" s="1">
         <v>87.42</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>87.42</v>
       </c>
       <c r="K16" s="1">
@@ -894,7 +983,7 @@
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,7 +996,7 @@
       <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -919,7 +1008,7 @@
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -932,7 +1021,7 @@
       <c r="I18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -944,7 +1033,7 @@
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -971,7 +1060,7 @@
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="13"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1085,7 @@
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="13"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1110,7 @@
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1135,7 @@
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="13"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1160,7 @@
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1185,7 @@
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1210,7 @@
       </c>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1235,7 @@
       </c>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1260,7 @@
       </c>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1196,30 +1285,34 @@
       </c>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="13">
-        <v>4000</v>
+      <c r="E29" s="12">
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>402.07</v>
+        <v>1.53</v>
       </c>
       <c r="H29" s="1">
-        <v>409.56</v>
+        <v>1.38</v>
       </c>
       <c r="I29" s="1">
-        <v>407.3</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+        <v>1.36</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1.37</v>
+      </c>
       <c r="L29">
-        <f>AVERAGE(G29:I29)</f>
-        <v>406.31</v>
+        <f t="shared" ref="L29:L36" si="1">AVERAGE(G29:K29)</f>
+        <v>1.4340000000000002</v>
       </c>
     </row>
     <row r="30" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1232,187 +1325,396 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
       <c r="L30">
-        <f t="shared" ref="L30:L38" si="1">AVERAGE(G30:I30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>661.05</v>
+        <v>57.46</v>
       </c>
       <c r="H31" s="1">
-        <v>670.86</v>
+        <v>176.04</v>
       </c>
       <c r="I31" s="1">
-        <v>649.16</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+        <v>58.81</v>
+      </c>
+      <c r="J31" s="8">
+        <v>92.42</v>
+      </c>
+      <c r="K31" s="8">
+        <v>58.21</v>
+      </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>660.35666666666657</v>
+        <v>88.587999999999994</v>
       </c>
     </row>
     <row r="32" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="13"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>499.1</v>
+        <v>2.79</v>
       </c>
       <c r="H32" s="1">
-        <v>508.66</v>
+        <v>2.58</v>
       </c>
       <c r="I32" s="1">
-        <v>507.11</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+        <v>2.58</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2.64</v>
+      </c>
+      <c r="K32" s="8">
+        <v>2.57</v>
+      </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>504.95666666666665</v>
+        <v>2.6320000000000001</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>510.39</v>
+        <v>4.03</v>
       </c>
       <c r="H33" s="1">
-        <v>522.39</v>
+        <v>3.31</v>
       </c>
       <c r="I33" s="1">
-        <v>521.6</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+        <v>3.17</v>
+      </c>
+      <c r="J33" s="8">
+        <v>3.69</v>
+      </c>
+      <c r="K33" s="8">
+        <v>3.13</v>
+      </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>518.12666666666667</v>
+        <v>3.4659999999999997</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="13"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>2397463</v>
+        <v>1677907</v>
       </c>
       <c r="H34" s="1">
-        <v>2384672</v>
+        <v>1678145</v>
       </c>
       <c r="I34" s="1">
-        <v>2388531</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+        <v>1678185</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1677912</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1678149</v>
+      </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>2390222</v>
+        <v>1678059.6</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="13"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>960.9</v>
+        <v>960.8</v>
       </c>
       <c r="H35" s="1">
-        <v>960.5</v>
+        <v>960.7</v>
       </c>
       <c r="I35" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+        <v>960.8</v>
+      </c>
+      <c r="J35" s="8">
+        <v>960.8</v>
+      </c>
+      <c r="K35" s="8">
+        <v>960.8</v>
+      </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>960.63333333333333</v>
+        <v>960.78000000000009</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="13"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>2495.11</v>
+        <v>1746.31</v>
       </c>
       <c r="H36" s="1">
-        <v>2482.7800000000002</v>
+        <v>1746.7</v>
       </c>
       <c r="I36" s="1">
-        <v>2486.86</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+        <v>1746.68</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1746.32</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1746.69</v>
+      </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>2488.25</v>
+        <v>1746.5400000000002</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="13"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="L37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L37:L38" si="2">AVERAGE(G37:I37)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="13"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>402.07</v>
+      </c>
+      <c r="H39" s="2">
+        <v>409.56</v>
+      </c>
+      <c r="I39" s="2">
+        <v>407.3</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" s="12"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E41" s="12"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>661.05</v>
+      </c>
+      <c r="H41" s="2">
+        <v>670.86</v>
+      </c>
+      <c r="I41" s="2">
+        <v>649.16</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="12"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>499.1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>508.66</v>
+      </c>
+      <c r="I42" s="2">
+        <v>507.11</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="12"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>510.39</v>
+      </c>
+      <c r="H43" s="2">
+        <v>522.39</v>
+      </c>
+      <c r="I43" s="2">
+        <v>521.6</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="12"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2397463</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2384672</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2388531</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="12"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.9</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="12"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2495.11</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2482.7800000000002</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2486.86</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="12"/>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="12"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="E7:K7"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1420,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
-  <dimension ref="E7:M40"/>
+  <dimension ref="E7:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,13 +1737,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -1461,7 +1763,7 @@
       </c>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1491,7 +1793,7 @@
       </c>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1821,7 @@
       </c>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1849,7 @@
       </c>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1877,7 @@
       </c>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1905,7 @@
       </c>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1631,7 +1933,7 @@
       </c>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1961,7 @@
       </c>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1686,8 +1988,8 @@
         <v>87.40000000000002</v>
       </c>
     </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="17"/>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E17" s="16"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1714,8 +2016,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" s="17"/>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="16"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1742,8 +2044,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="18">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="17">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1763,8 +2065,8 @@
         <v>1.5266666666666666</v>
       </c>
     </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E20" s="18"/>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="17"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1778,12 +2080,12 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J38" si="1">AVERAGE(G20:I20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="18"/>
+        <f t="shared" ref="J20:J28" si="1">AVERAGE(G20:I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="17"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1801,8 +2103,8 @@
         <v>117.90333333333335</v>
       </c>
     </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="18"/>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="17"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1820,8 +2122,8 @@
         <v>2.6166666666666667</v>
       </c>
     </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="18"/>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="17"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1839,8 +2141,8 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="18"/>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="17"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1858,8 +2160,8 @@
         <v>838995</v>
       </c>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="18"/>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="17"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1877,8 +2179,8 @@
         <v>960.86666666666667</v>
       </c>
     </row>
-    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="18"/>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E26" s="17"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1896,8 +2198,8 @@
         <v>873.16</v>
       </c>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="18"/>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="17"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1915,8 +2217,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="18"/>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E28" s="17"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
@@ -1934,29 +2236,50 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="17">
-        <v>4000</v>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E29" s="20">
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>1060</v>
+        <v>130.41</v>
       </c>
       <c r="H29" s="1">
-        <v>1030</v>
+        <v>112.54</v>
       </c>
       <c r="I29" s="1">
-        <v>1040</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>1043.3333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
+        <v>132.94</v>
+      </c>
+      <c r="J29" s="5">
+        <v>129.91999999999999</v>
+      </c>
+      <c r="K29" s="5">
+        <v>125.62</v>
+      </c>
+      <c r="L29" s="18">
+        <v>132.5</v>
+      </c>
+      <c r="M29" s="18">
+        <v>113.25</v>
+      </c>
+      <c r="N29" s="18">
+        <v>123.78</v>
+      </c>
+      <c r="O29" s="18">
+        <v>119.43</v>
+      </c>
+      <c r="P29" s="18">
+        <v>132.12</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(G29:P29)</f>
+        <v>125.25099999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E30" s="20"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1969,174 +2292,511 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="17"/>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0</v>
+      </c>
+      <c r="O30" s="18">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q38" si="2">AVERAGE(G30:P30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="20"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>1440</v>
+        <v>298.82</v>
       </c>
       <c r="H31" s="1">
-        <v>1420</v>
+        <v>269.18</v>
       </c>
       <c r="I31" s="1">
-        <v>1450</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>1436.6666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="17"/>
+        <v>326.7</v>
+      </c>
+      <c r="J31" s="5">
+        <v>302.26</v>
+      </c>
+      <c r="K31" s="5">
+        <v>391.78</v>
+      </c>
+      <c r="L31" s="18">
+        <v>330.3</v>
+      </c>
+      <c r="M31" s="18">
+        <v>267.07</v>
+      </c>
+      <c r="N31" s="18">
+        <v>325.27999999999997</v>
+      </c>
+      <c r="O31" s="18">
+        <v>290.27</v>
+      </c>
+      <c r="P31" s="18">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>309.45600000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E32" s="20"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>1260</v>
+        <v>176.57</v>
       </c>
       <c r="H32" s="1">
-        <v>1230</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="I32" s="1">
-        <v>1230</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" s="17"/>
+        <v>180.68</v>
+      </c>
+      <c r="J32" s="6">
+        <v>174.55</v>
+      </c>
+      <c r="K32" s="7">
+        <v>172.53</v>
+      </c>
+      <c r="L32" s="19">
+        <v>184.07</v>
+      </c>
+      <c r="M32" s="19">
+        <v>158.44999999999999</v>
+      </c>
+      <c r="N32" s="19">
+        <v>170.88</v>
+      </c>
+      <c r="O32" s="19">
+        <v>165.51</v>
+      </c>
+      <c r="P32" s="19">
+        <v>181.23</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>172.017</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E33" s="20"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>1270</v>
+        <v>189.23</v>
       </c>
       <c r="H33" s="1">
-        <v>1240</v>
+        <v>169.5</v>
       </c>
       <c r="I33" s="1">
-        <v>1240</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="17"/>
+        <v>195.53</v>
+      </c>
+      <c r="J33" s="6">
+        <v>188.98</v>
+      </c>
+      <c r="K33" s="7">
+        <v>203.7</v>
+      </c>
+      <c r="L33" s="19">
+        <v>200.43</v>
+      </c>
+      <c r="M33" s="19">
+        <v>172.88</v>
+      </c>
+      <c r="N33" s="19">
+        <v>191.01</v>
+      </c>
+      <c r="O33" s="19">
+        <v>184.09</v>
+      </c>
+      <c r="P33" s="19">
+        <v>197.57</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>189.29199999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E34" s="20"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>1629594</v>
+        <v>1486650</v>
       </c>
       <c r="H34" s="1">
-        <v>1649520</v>
+        <v>1510521</v>
       </c>
       <c r="I34" s="1">
-        <v>1644510</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>1641208</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="17"/>
+        <v>1483341</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1488495</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1492979</v>
+      </c>
+      <c r="L34" s="19">
+        <v>1483916</v>
+      </c>
+      <c r="M34" s="19">
+        <v>1509542</v>
+      </c>
+      <c r="N34" s="19">
+        <v>1495427</v>
+      </c>
+      <c r="O34" s="19">
+        <v>1501236</v>
+      </c>
+      <c r="P34" s="19">
+        <v>1484400</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>1493650.7</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E35" s="20"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>960.8</v>
+        <v>960.6</v>
       </c>
       <c r="H35" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="I35" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J35" s="6">
+        <v>960.7</v>
+      </c>
+      <c r="K35" s="7">
         <v>960.6</v>
       </c>
-      <c r="I35" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>960.73333333333323</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="17"/>
+      <c r="L35" s="19">
+        <v>960.9</v>
+      </c>
+      <c r="M35" s="19">
+        <v>960.4</v>
+      </c>
+      <c r="N35" s="19">
+        <v>960.5</v>
+      </c>
+      <c r="O35" s="19">
+        <v>960.5</v>
+      </c>
+      <c r="P35" s="19">
+        <v>960.7</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>960.61</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E36" s="20"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>1696.01</v>
+        <v>1547.55</v>
       </c>
       <c r="H36" s="1">
-        <v>1717.11</v>
+        <v>1572.24</v>
       </c>
       <c r="I36" s="1">
-        <v>1711.67</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="1"/>
-        <v>1708.2633333333333</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="17"/>
+        <v>1544.27</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1549.33</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1554.2</v>
+      </c>
+      <c r="L36" s="19">
+        <v>1544.37</v>
+      </c>
+      <c r="M36" s="19">
+        <v>1571.81</v>
+      </c>
+      <c r="N36" s="19">
+        <v>1556.93</v>
+      </c>
+      <c r="O36" s="19">
+        <v>1562.99</v>
+      </c>
+      <c r="P36" s="19">
+        <v>1545.04</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>1554.873</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E37" s="20"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" t="e">
-        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E38" s="17"/>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E38" s="20"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="17">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1060</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1030</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="17"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="17"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1440</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1420</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="17"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1260</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1230</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="17"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1270</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1240</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="17"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1629594</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1649520</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1644510</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="17"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="I45" s="2">
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E46" s="17"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1696.01</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1717.11</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1711.67</v>
+      </c>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E47" s="17"/>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E48" s="17"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J38" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2144,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:P41"/>
+  <dimension ref="E7:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,13 +2818,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
@@ -2184,15 +2844,15 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>4</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2207,15 +2867,15 @@
       <c r="I9" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>2.19</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2228,15 +2888,15 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="13"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2249,15 +2909,15 @@
       <c r="I11" s="1">
         <v>155.55000000000001</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>153.28</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>175.88</v>
       </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
@@ -2270,15 +2930,15 @@
       <c r="I12" s="1">
         <v>3.33</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>3.31</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>3.37</v>
       </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2291,15 +2951,15 @@
       <c r="I13" s="1">
         <v>4.09</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>4.09</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>4.08</v>
       </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2312,15 +2972,15 @@
       <c r="I14" s="1">
         <v>83885</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>83891</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>83885</v>
       </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2333,15 +2993,15 @@
       <c r="I15" s="1">
         <v>960.7</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>960.7</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>960.8</v>
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2354,15 +3014,15 @@
       <c r="I16" s="1">
         <v>87.32</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>87.32</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>87.31</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2375,15 +3035,15 @@
       <c r="I17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2396,15 +3056,15 @@
       <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>1000</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -2425,16 +3085,16 @@
       <c r="K19" s="4">
         <v>189.42</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <v>197.41</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <v>201.74</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>200.38</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <v>194.05</v>
       </c>
       <c r="P19">
@@ -2443,7 +3103,7 @@
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="13"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2462,16 +3122,16 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="10">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
         <v>0</v>
       </c>
       <c r="P20">
@@ -2480,7 +3140,7 @@
       </c>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="13"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
@@ -2499,16 +3159,16 @@
       <c r="K21" s="4">
         <v>357.14</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <v>429.12</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <v>383.34</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>416.66</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <v>453.51</v>
       </c>
       <c r="P21">
@@ -2517,7 +3177,7 @@
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2536,16 +3196,16 @@
       <c r="K22" s="4">
         <v>250.56</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>256.56</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <v>259.88</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <v>260.44</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <v>254.82</v>
       </c>
       <c r="P22">
@@ -2554,7 +3214,7 @@
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="13"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2573,16 +3233,16 @@
       <c r="K23" s="4">
         <v>261.88</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>270.25</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <v>270.08</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <v>274.10000000000002</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="11">
         <v>267.57</v>
       </c>
       <c r="P23">
@@ -2591,7 +3251,7 @@
       </c>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="13"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2610,16 +3270,16 @@
       <c r="K24" s="4">
         <v>706390</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>701692</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>699161</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <v>699950</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="11">
         <v>703666</v>
       </c>
       <c r="P24">
@@ -2628,7 +3288,7 @@
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2647,16 +3307,16 @@
       <c r="K25" s="4">
         <v>960.7</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>960.7</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <v>961</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <v>960.5</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="11">
         <v>960.6</v>
       </c>
       <c r="P25">
@@ -2665,7 +3325,7 @@
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
@@ -2684,16 +3344,16 @@
       <c r="K26" s="4">
         <v>735.25</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>730.43</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <v>727.54</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="11">
         <v>728.76</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="11">
         <v>732.51</v>
       </c>
       <c r="P26">
@@ -2702,7 +3362,7 @@
       </c>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="13"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2721,16 +3381,16 @@
       <c r="K27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="10" t="s">
+      <c r="O27" s="9" t="s">
         <v>41</v>
       </c>
       <c r="P27" t="e">
@@ -2739,35 +3399,35 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="N28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="O28" s="9" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="e">
@@ -2776,269 +3436,538 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="13">
-        <v>4000</v>
+      <c r="E29" s="20">
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="1">
-        <v>3430</v>
-      </c>
-      <c r="H29" s="1">
-        <v>3420</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3460</v>
-      </c>
-      <c r="J29" s="1">
-        <v>3470</v>
-      </c>
-      <c r="K29" s="1">
-        <v>3500</v>
-      </c>
-      <c r="L29">
-        <f>AVERAGE(G29:K29)</f>
-        <v>3456</v>
+      <c r="G29" s="21">
+        <v>1420</v>
+      </c>
+      <c r="H29" s="21">
+        <v>1390</v>
+      </c>
+      <c r="I29" s="21">
+        <v>1400</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1450</v>
+      </c>
+      <c r="K29" s="21">
+        <v>1400</v>
+      </c>
+      <c r="L29" s="21">
+        <v>1420</v>
+      </c>
+      <c r="M29" s="21">
+        <v>1410</v>
+      </c>
+      <c r="N29">
+        <f>AVERAGE(G29:M29)</f>
+        <v>1412.8571428571429</v>
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="13"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30:L38" si="1">AVERAGE(G30:K30)</f>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N38" si="1">AVERAGE(G30:M30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="13"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="1">
-        <v>4210</v>
-      </c>
-      <c r="H31" s="1">
-        <v>4210</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4340</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4280</v>
-      </c>
-      <c r="K31" s="1">
-        <v>5370</v>
-      </c>
-      <c r="L31">
+      <c r="G31" s="21">
+        <v>2480</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1890</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1800</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1950</v>
+      </c>
+      <c r="K31" s="21">
+        <v>1850</v>
+      </c>
+      <c r="L31" s="21">
+        <v>1940</v>
+      </c>
+      <c r="M31" s="21">
+        <v>1900</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="1"/>
-        <v>4482</v>
+        <v>1972.8571428571429</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="13"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="1">
-        <v>3980</v>
-      </c>
-      <c r="H32" s="1">
-        <v>3970</v>
-      </c>
-      <c r="I32" s="1">
-        <v>4000</v>
-      </c>
-      <c r="J32" s="1">
-        <v>4030</v>
-      </c>
-      <c r="K32" s="1">
-        <v>4280</v>
-      </c>
-      <c r="L32">
+      <c r="G32" s="21">
+        <v>1660</v>
+      </c>
+      <c r="H32" s="21">
+        <v>1640</v>
+      </c>
+      <c r="I32" s="21">
+        <v>1650</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1720</v>
+      </c>
+      <c r="K32" s="21">
+        <v>1650</v>
+      </c>
+      <c r="L32" s="21">
+        <v>1680</v>
+      </c>
+      <c r="M32" s="21">
+        <v>1660</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="1"/>
-        <v>4052</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="13"/>
+        <v>1665.7142857142858</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E33" s="20"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H33" s="1">
-        <v>3980</v>
-      </c>
-      <c r="I33" s="1">
-        <v>4010</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4060</v>
-      </c>
-      <c r="K33" s="1">
-        <v>4410</v>
-      </c>
-      <c r="L33">
+      <c r="G33" s="21">
+        <v>1710</v>
+      </c>
+      <c r="H33" s="21">
+        <v>1660</v>
+      </c>
+      <c r="I33" s="21">
+        <v>1680</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1740</v>
+      </c>
+      <c r="K33" s="21">
+        <v>1670</v>
+      </c>
+      <c r="L33" s="21">
+        <v>1710</v>
+      </c>
+      <c r="M33" s="21">
+        <v>1680</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="1"/>
-        <v>4092</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" s="13"/>
+        <v>1692.8571428571429</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E34" s="20"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="1">
-        <v>758474</v>
-      </c>
-      <c r="H34" s="1">
-        <v>760179</v>
-      </c>
-      <c r="I34" s="1">
-        <v>754228</v>
-      </c>
-      <c r="J34" s="1">
-        <v>752020</v>
-      </c>
-      <c r="K34" s="1">
-        <v>746245</v>
-      </c>
-      <c r="L34">
+      <c r="G34" s="21">
+        <v>694086</v>
+      </c>
+      <c r="H34" s="21">
+        <v>701810</v>
+      </c>
+      <c r="I34" s="21">
+        <v>698250</v>
+      </c>
+      <c r="J34" s="21">
+        <v>683524</v>
+      </c>
+      <c r="K34" s="21">
+        <v>698834</v>
+      </c>
+      <c r="L34" s="21">
+        <v>693427</v>
+      </c>
+      <c r="M34" s="21">
+        <v>697465</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="1"/>
-        <v>754229.2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" s="13"/>
+        <v>695342.28571428568</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="20"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="21">
+        <v>960.9</v>
+      </c>
+      <c r="H35" s="21">
+        <v>961</v>
+      </c>
+      <c r="I35" s="21">
+        <v>961</v>
+      </c>
+      <c r="J35" s="21">
+        <v>961</v>
+      </c>
+      <c r="K35" s="21">
         <v>960.8</v>
       </c>
-      <c r="H35" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="I35" s="1">
-        <v>960.5</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="L35" s="21">
+        <v>960.8</v>
+      </c>
+      <c r="M35" s="21">
         <v>960.7</v>
       </c>
-      <c r="K35" s="1">
-        <v>960.8</v>
-      </c>
-      <c r="L35">
+      <c r="N35">
         <f t="shared" si="1"/>
-        <v>960.66000000000008</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" s="13"/>
+        <v>960.88571428571424</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E36" s="20"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="1">
-        <v>789.45</v>
-      </c>
-      <c r="H36" s="1">
-        <v>791.41</v>
-      </c>
-      <c r="I36" s="1">
-        <v>785.24</v>
-      </c>
-      <c r="J36" s="1">
-        <v>782.77</v>
-      </c>
-      <c r="K36" s="1">
-        <v>776.65</v>
-      </c>
-      <c r="L36">
+      <c r="G36" s="21">
+        <v>722.3</v>
+      </c>
+      <c r="H36" s="21">
+        <v>730.3</v>
+      </c>
+      <c r="I36" s="21">
+        <v>726.62</v>
+      </c>
+      <c r="J36" s="21">
+        <v>711.28</v>
+      </c>
+      <c r="K36" s="21">
+        <v>727.38</v>
+      </c>
+      <c r="L36" s="21">
+        <v>721.72</v>
+      </c>
+      <c r="M36" s="21">
+        <v>726.02</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="1"/>
-        <v>785.10400000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E37" s="13"/>
+        <v>723.66000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E37" s="20"/>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" t="e">
+      <c r="G37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" s="13"/>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E38" s="20"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" t="e">
+      <c r="G38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E39" s="12">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21">
+        <v>3430</v>
+      </c>
+      <c r="H39" s="25">
+        <v>3420</v>
+      </c>
+      <c r="I39" s="25">
+        <v>3460</v>
+      </c>
+      <c r="J39" s="25">
+        <v>3470</v>
+      </c>
+      <c r="K39" s="25">
+        <v>3500</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="12"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E41" s="12"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4210</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4210</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4340</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4280</v>
+      </c>
+      <c r="K41" s="2">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E42" s="12"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3980</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3970</v>
+      </c>
+      <c r="I42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J42" s="2">
+        <v>4030</v>
+      </c>
+      <c r="K42" s="2">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E43" s="12"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3980</v>
+      </c>
+      <c r="I43" s="2">
+        <v>4010</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4060</v>
+      </c>
+      <c r="K43" s="2">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E44" s="12"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>758474</v>
+      </c>
+      <c r="H44" s="2">
+        <v>760179</v>
+      </c>
+      <c r="I44" s="2">
+        <v>754228</v>
+      </c>
+      <c r="J44" s="2">
+        <v>752020</v>
+      </c>
+      <c r="K44" s="2">
+        <v>746245</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E45" s="12"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>960.7</v>
+      </c>
+      <c r="K45" s="2">
+        <v>960.8</v>
+      </c>
+    </row>
+    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E46" s="12"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>789.45</v>
+      </c>
+      <c r="H46" s="2">
+        <v>791.41</v>
+      </c>
+      <c r="I46" s="2">
+        <v>785.24</v>
+      </c>
+      <c r="J46" s="2">
+        <v>782.77</v>
+      </c>
+      <c r="K46" s="2">
+        <v>776.65</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E47" s="12"/>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E48" s="12"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
